--- a/words.xlsx
+++ b/words.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="32780" yWindow="500" windowWidth="18420" windowHeight="18800" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="27620" yWindow="500" windowWidth="23580" windowHeight="20960" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <name val="等线"/>
       <charset val="134"/>
@@ -51,12 +51,6 @@
     <font>
       <name val="Times New Roman"/>
       <charset val="134"/>
-      <family val="1"/>
-      <color theme="1"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
       <family val="1"/>
       <color theme="1"/>
       <sz val="12"/>
@@ -115,9 +109,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -126,6 +117,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
@@ -508,8 +502,8 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="123" zoomScaleNormal="123" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -520,55 +514,55 @@
     <col width="22.5" bestFit="1" customWidth="1" style="1" min="4" max="4"/>
     <col width="5.1640625" bestFit="1" customWidth="1" style="1" min="5" max="5"/>
     <col width="15.6640625" bestFit="1" customWidth="1" style="1" min="6" max="6"/>
-    <col width="10.83203125" customWidth="1" style="1" min="7" max="15"/>
-    <col width="10.83203125" customWidth="1" style="1" min="16" max="16384"/>
+    <col width="10.83203125" customWidth="1" style="1" min="7" max="25"/>
+    <col width="10.83203125" customWidth="1" style="1" min="26" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" s="5">
-      <c r="A1" s="4" t="n">
+    <row r="1" customFormat="1" s="4">
+      <c r="A1" s="3" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>n</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>adj</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>adv</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
-        <is>
-          <t>phonetic</t>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>phonetics</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>specialty</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="6" t="inlineStr">
         <is>
           <t>专业; 特产</t>
         </is>
       </c>
-      <c r="C2" s="3" t="n"/>
-      <c r="D2" s="3" t="n"/>
-      <c r="E2" s="3" t="n"/>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="C2" s="6" t="n"/>
+      <c r="D2" s="6" t="n"/>
+      <c r="E2" s="6" t="n"/>
+      <c r="F2" s="6" t="inlineStr">
         <is>
           <t>[ˈspeʃəlti]</t>
         </is>
@@ -599,20 +593,20 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>provoke</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n"/>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="B4" s="6" t="n"/>
+      <c r="C4" s="6" t="inlineStr">
         <is>
           <t>挑衅, 引起(争议)</t>
         </is>
       </c>
-      <c r="D4" s="3" t="n"/>
-      <c r="E4" s="3" t="n"/>
-      <c r="F4" s="3" t="inlineStr">
+      <c r="D4" s="6" t="n"/>
+      <c r="E4" s="6" t="n"/>
+      <c r="F4" s="6" t="inlineStr">
         <is>
           <t>[prəˈvoʊk]</t>
         </is>
@@ -643,24 +637,24 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>strain</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>压力; 紧张; 种类; 特性; 旋律</t>
         </is>
       </c>
-      <c r="C6" s="3" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>使劳损; 拉紧; 过滤; 尽力</t>
         </is>
       </c>
-      <c r="D6" s="3" t="n"/>
-      <c r="E6" s="3" t="n"/>
-      <c r="F6" s="3" t="inlineStr">
+      <c r="D6" s="6" t="n"/>
+      <c r="E6" s="6" t="n"/>
+      <c r="F6" s="6" t="inlineStr">
         <is>
           <t>[streɪn]</t>
         </is>
@@ -687,20 +681,20 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>fraud</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B8" s="6" t="inlineStr">
         <is>
           <t>诈骗; 骗子</t>
         </is>
       </c>
-      <c r="C8" s="3" t="n"/>
-      <c r="D8" s="3" t="n"/>
-      <c r="E8" s="3" t="n"/>
-      <c r="F8" s="3" t="inlineStr">
+      <c r="C8" s="6" t="n"/>
+      <c r="D8" s="6" t="n"/>
+      <c r="E8" s="6" t="n"/>
+      <c r="F8" s="6" t="inlineStr">
         <is>
           <t>[frɔːd]</t>
         </is>
@@ -727,24 +721,24 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="inlineStr">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>peel</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B10" s="6" t="inlineStr">
         <is>
           <t>果皮, 外皮</t>
         </is>
       </c>
-      <c r="C10" s="3" t="inlineStr">
+      <c r="C10" s="6" t="inlineStr">
         <is>
           <t>削皮</t>
         </is>
       </c>
-      <c r="D10" s="3" t="n"/>
-      <c r="E10" s="3" t="n"/>
-      <c r="F10" s="3" t="inlineStr">
+      <c r="D10" s="6" t="n"/>
+      <c r="E10" s="6" t="n"/>
+      <c r="F10" s="6" t="inlineStr">
         <is>
           <t>[piːl]</t>
         </is>
@@ -775,20 +769,20 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="inlineStr">
+      <c r="A12" s="6" t="inlineStr">
         <is>
           <t>petrol</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B12" s="6" t="inlineStr">
         <is>
           <t>汽油</t>
         </is>
       </c>
-      <c r="C12" s="3" t="n"/>
-      <c r="D12" s="3" t="n"/>
-      <c r="E12" s="3" t="n"/>
-      <c r="F12" s="3" t="inlineStr">
+      <c r="C12" s="6" t="n"/>
+      <c r="D12" s="6" t="n"/>
+      <c r="E12" s="6" t="n"/>
+      <c r="F12" s="6" t="inlineStr">
         <is>
           <t>[ˈpetrəl]</t>
         </is>
@@ -819,20 +813,20 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="inlineStr">
+      <c r="A14" s="6" t="inlineStr">
         <is>
           <t>impetus</t>
         </is>
       </c>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="B14" s="6" t="inlineStr">
         <is>
           <t>推动力; 促进</t>
         </is>
       </c>
-      <c r="C14" s="3" t="n"/>
-      <c r="D14" s="3" t="n"/>
-      <c r="E14" s="3" t="n"/>
-      <c r="F14" s="3" t="inlineStr">
+      <c r="C14" s="6" t="n"/>
+      <c r="D14" s="6" t="n"/>
+      <c r="E14" s="6" t="n"/>
+      <c r="F14" s="6" t="inlineStr">
         <is>
           <t>[ˈɪmpɪtəs]</t>
         </is>
@@ -859,20 +853,20 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="inlineStr">
+      <c r="A16" s="6" t="inlineStr">
         <is>
           <t>dispose</t>
         </is>
       </c>
-      <c r="B16" s="3" t="n"/>
-      <c r="C16" s="3" t="inlineStr">
+      <c r="B16" s="6" t="n"/>
+      <c r="C16" s="6" t="inlineStr">
         <is>
           <t>处理, 处置</t>
         </is>
       </c>
-      <c r="D16" s="3" t="n"/>
-      <c r="E16" s="3" t="n"/>
-      <c r="F16" s="3" t="inlineStr">
+      <c r="D16" s="6" t="n"/>
+      <c r="E16" s="6" t="n"/>
+      <c r="F16" s="6" t="inlineStr">
         <is>
           <t>[dɪˈspoʊz]</t>
         </is>
@@ -899,20 +893,20 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="inlineStr">
+      <c r="A18" s="6" t="inlineStr">
         <is>
           <t>satire</t>
         </is>
       </c>
-      <c r="B18" s="3" t="inlineStr">
+      <c r="B18" s="6" t="inlineStr">
         <is>
           <t>讽刺(作品)</t>
         </is>
       </c>
-      <c r="C18" s="3" t="n"/>
-      <c r="D18" s="3" t="n"/>
-      <c r="E18" s="3" t="n"/>
-      <c r="F18" s="3" t="inlineStr">
+      <c r="C18" s="6" t="n"/>
+      <c r="D18" s="6" t="n"/>
+      <c r="E18" s="6" t="n"/>
+      <c r="F18" s="6" t="inlineStr">
         <is>
           <t>[ˈsætaɪər]</t>
         </is>
@@ -939,20 +933,20 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="inlineStr">
+      <c r="A20" s="6" t="inlineStr">
         <is>
           <t>malice</t>
         </is>
       </c>
-      <c r="B20" s="3" t="inlineStr">
+      <c r="B20" s="6" t="inlineStr">
         <is>
           <t>恶意, 怨恨</t>
         </is>
       </c>
-      <c r="C20" s="3" t="n"/>
-      <c r="D20" s="3" t="n"/>
-      <c r="E20" s="3" t="n"/>
-      <c r="F20" s="3" t="inlineStr">
+      <c r="C20" s="6" t="n"/>
+      <c r="D20" s="6" t="n"/>
+      <c r="E20" s="6" t="n"/>
+      <c r="F20" s="6" t="inlineStr">
         <is>
           <t>[ˈmælɪs]</t>
         </is>
@@ -983,20 +977,20 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="inlineStr">
+      <c r="A22" s="6" t="inlineStr">
         <is>
           <t>expire</t>
         </is>
       </c>
-      <c r="B22" s="3" t="n"/>
-      <c r="C22" s="3" t="inlineStr">
+      <c r="B22" s="6" t="n"/>
+      <c r="C22" s="6" t="inlineStr">
         <is>
           <t>期满, 期限终止</t>
         </is>
       </c>
-      <c r="D22" s="3" t="n"/>
-      <c r="E22" s="3" t="n"/>
-      <c r="F22" s="3" t="inlineStr">
+      <c r="D22" s="6" t="n"/>
+      <c r="E22" s="6" t="n"/>
+      <c r="F22" s="6" t="inlineStr">
         <is>
           <t>[ɪkˈspaɪər]</t>
         </is>
@@ -1023,25 +1017,25 @@
       </c>
     </row>
     <row r="24" ht="34" customHeight="1" s="7">
-      <c r="A24" s="3" t="inlineStr">
+      <c r="A24" s="6" t="inlineStr">
         <is>
           <t>conscious</t>
         </is>
       </c>
-      <c r="B24" s="3" t="inlineStr">
+      <c r="B24" s="6" t="inlineStr">
         <is>
           <t>意识</t>
         </is>
       </c>
-      <c r="C24" s="3" t="n"/>
-      <c r="D24" s="6" t="inlineStr">
+      <c r="C24" s="6" t="n"/>
+      <c r="D24" s="5" t="inlineStr">
         <is>
           <t>神志清醒的; 有意识的;
 意识到的; 故意的</t>
         </is>
       </c>
-      <c r="E24" s="3" t="n"/>
-      <c r="F24" s="3" t="inlineStr">
+      <c r="E24" s="6" t="n"/>
+      <c r="F24" s="6" t="inlineStr">
         <is>
           <t>[ˈkɑːnʃəs]</t>
         </is>
@@ -1068,24 +1062,24 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="inlineStr">
+      <c r="A26" s="6" t="inlineStr">
         <is>
           <t>manifest</t>
         </is>
       </c>
-      <c r="B26" s="3" t="n"/>
-      <c r="C26" s="3" t="inlineStr">
+      <c r="B26" s="6" t="n"/>
+      <c r="C26" s="6" t="inlineStr">
         <is>
           <t>使显露, 表明</t>
         </is>
       </c>
-      <c r="D26" s="3" t="inlineStr">
+      <c r="D26" s="6" t="inlineStr">
         <is>
           <t>显然的, 明了的</t>
         </is>
       </c>
-      <c r="E26" s="3" t="n"/>
-      <c r="F26" s="3" t="inlineStr">
+      <c r="E26" s="6" t="n"/>
+      <c r="F26" s="6" t="inlineStr">
         <is>
           <t>[ˈmænɪfest]</t>
         </is>
@@ -1112,24 +1106,24 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="inlineStr">
+      <c r="A28" s="6" t="inlineStr">
         <is>
           <t>loot</t>
         </is>
       </c>
-      <c r="B28" s="3" t="inlineStr">
+      <c r="B28" s="6" t="inlineStr">
         <is>
           <t>掠夺品, 赃物</t>
         </is>
       </c>
-      <c r="C28" s="3" t="inlineStr">
+      <c r="C28" s="6" t="inlineStr">
         <is>
           <t>掠夺, 洗劫</t>
         </is>
       </c>
-      <c r="D28" s="3" t="n"/>
-      <c r="E28" s="3" t="n"/>
-      <c r="F28" s="3" t="inlineStr">
+      <c r="D28" s="6" t="n"/>
+      <c r="E28" s="6" t="n"/>
+      <c r="F28" s="6" t="inlineStr">
         <is>
           <t>[luːt]</t>
         </is>
@@ -1160,20 +1154,20 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="inlineStr">
+      <c r="A30" s="6" t="inlineStr">
         <is>
           <t>lout</t>
         </is>
       </c>
-      <c r="B30" s="3" t="inlineStr">
+      <c r="B30" s="6" t="inlineStr">
         <is>
           <t>举止粗野的人</t>
         </is>
       </c>
-      <c r="C30" s="3" t="n"/>
-      <c r="D30" s="3" t="n"/>
-      <c r="E30" s="3" t="n"/>
-      <c r="F30" s="3" t="inlineStr">
+      <c r="C30" s="6" t="n"/>
+      <c r="D30" s="6" t="n"/>
+      <c r="E30" s="6" t="n"/>
+      <c r="F30" s="6" t="inlineStr">
         <is>
           <t>[laʊt]</t>
         </is>
@@ -1204,24 +1198,24 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="inlineStr">
+      <c r="A32" s="6" t="inlineStr">
         <is>
           <t>loom</t>
         </is>
       </c>
-      <c r="B32" s="3" t="inlineStr">
+      <c r="B32" s="6" t="inlineStr">
         <is>
           <t>织布机</t>
         </is>
       </c>
-      <c r="C32" s="3" t="inlineStr">
+      <c r="C32" s="6" t="inlineStr">
         <is>
           <t>耸现, 逼近</t>
         </is>
       </c>
-      <c r="D32" s="3" t="n"/>
-      <c r="E32" s="3" t="n"/>
-      <c r="F32" s="3" t="inlineStr">
+      <c r="D32" s="6" t="n"/>
+      <c r="E32" s="6" t="n"/>
+      <c r="F32" s="6" t="inlineStr">
         <is>
           <t>[luːm]</t>
         </is>
@@ -1252,20 +1246,20 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="inlineStr">
+      <c r="A34" s="6" t="inlineStr">
         <is>
           <t>outrageous</t>
         </is>
       </c>
-      <c r="B34" s="3" t="n"/>
-      <c r="C34" s="3" t="n"/>
-      <c r="D34" s="3" t="inlineStr">
+      <c r="B34" s="6" t="n"/>
+      <c r="C34" s="6" t="n"/>
+      <c r="D34" s="6" t="inlineStr">
         <is>
           <t>无法接受的</t>
         </is>
       </c>
-      <c r="E34" s="3" t="n"/>
-      <c r="F34" s="3" t="inlineStr">
+      <c r="E34" s="6" t="n"/>
+      <c r="F34" s="6" t="inlineStr">
         <is>
           <t>[aʊtˈreɪdʒəs]</t>
         </is>
@@ -1296,20 +1290,20 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="inlineStr">
+      <c r="A36" s="6" t="inlineStr">
         <is>
           <t>diagnose</t>
         </is>
       </c>
-      <c r="B36" s="3" t="n"/>
-      <c r="C36" s="3" t="inlineStr">
+      <c r="B36" s="6" t="n"/>
+      <c r="C36" s="6" t="inlineStr">
         <is>
           <t>诊断; 确诊; 断定</t>
         </is>
       </c>
-      <c r="D36" s="3" t="n"/>
-      <c r="E36" s="3" t="n"/>
-      <c r="F36" s="3" t="inlineStr">
+      <c r="D36" s="6" t="n"/>
+      <c r="E36" s="6" t="n"/>
+      <c r="F36" s="6" t="inlineStr">
         <is>
           <t>[ˌdaɪəɡˈnoʊs]</t>
         </is>
@@ -1336,20 +1330,20 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="inlineStr">
+      <c r="A38" s="6" t="inlineStr">
         <is>
           <t>diagnoses</t>
         </is>
       </c>
-      <c r="B38" s="3" t="inlineStr">
+      <c r="B38" s="6" t="inlineStr">
         <is>
           <t>diagnosis的复数形式</t>
         </is>
       </c>
-      <c r="C38" s="3" t="n"/>
-      <c r="D38" s="3" t="n"/>
-      <c r="E38" s="3" t="n"/>
-      <c r="F38" s="2" t="inlineStr">
+      <c r="C38" s="6" t="n"/>
+      <c r="D38" s="6" t="n"/>
+      <c r="E38" s="6" t="n"/>
+      <c r="F38" s="6" t="inlineStr">
         <is>
           <t>[ˌdaɪəɡˈnoʊsɪz]</t>
         </is>
@@ -1376,24 +1370,24 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="inlineStr">
+      <c r="A40" s="6" t="inlineStr">
         <is>
           <t>voyage</t>
         </is>
       </c>
-      <c r="B40" s="3" t="inlineStr">
+      <c r="B40" s="6" t="inlineStr">
         <is>
           <t>航行; 航天</t>
         </is>
       </c>
-      <c r="C40" s="3" t="inlineStr">
+      <c r="C40" s="6" t="inlineStr">
         <is>
           <t>航海旅行</t>
         </is>
       </c>
-      <c r="D40" s="3" t="n"/>
-      <c r="E40" s="3" t="n"/>
-      <c r="F40" s="3" t="inlineStr">
+      <c r="D40" s="6" t="n"/>
+      <c r="E40" s="6" t="n"/>
+      <c r="F40" s="6" t="inlineStr">
         <is>
           <t>[ˈvɔɪɪdʒ]</t>
         </is>
@@ -1420,20 +1414,20 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="inlineStr">
+      <c r="A42" s="6" t="inlineStr">
         <is>
           <t>illiteracy</t>
         </is>
       </c>
-      <c r="B42" s="3" t="inlineStr">
+      <c r="B42" s="6" t="inlineStr">
         <is>
           <t>文盲; 无知</t>
         </is>
       </c>
-      <c r="C42" s="3" t="n"/>
-      <c r="D42" s="3" t="n"/>
-      <c r="E42" s="3" t="n"/>
-      <c r="F42" s="3" t="inlineStr">
+      <c r="C42" s="6" t="n"/>
+      <c r="D42" s="6" t="n"/>
+      <c r="E42" s="6" t="n"/>
+      <c r="F42" s="6" t="inlineStr">
         <is>
           <t>[ɪˈlɪtərəsi]</t>
         </is>
@@ -1460,20 +1454,20 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="3" t="inlineStr">
+      <c r="A44" s="6" t="inlineStr">
         <is>
           <t>permanent</t>
         </is>
       </c>
-      <c r="B44" s="3" t="n"/>
-      <c r="C44" s="3" t="n"/>
-      <c r="D44" s="3" t="inlineStr">
+      <c r="B44" s="6" t="n"/>
+      <c r="C44" s="6" t="n"/>
+      <c r="D44" s="6" t="inlineStr">
         <is>
           <t>永久的</t>
         </is>
       </c>
-      <c r="E44" s="3" t="n"/>
-      <c r="F44" s="3" t="inlineStr">
+      <c r="E44" s="6" t="n"/>
+      <c r="F44" s="6" t="inlineStr">
         <is>
           <t>[ˈpɜːrmənənt]</t>
         </is>
@@ -1488,12 +1482,12 @@
       <c r="F45" s="2" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="3" t="n"/>
-      <c r="B46" s="3" t="n"/>
-      <c r="C46" s="3" t="n"/>
-      <c r="D46" s="3" t="n"/>
-      <c r="E46" s="3" t="n"/>
-      <c r="F46" s="3" t="n"/>
+      <c r="A46" s="6" t="n"/>
+      <c r="B46" s="6" t="n"/>
+      <c r="C46" s="6" t="n"/>
+      <c r="D46" s="6" t="n"/>
+      <c r="E46" s="6" t="n"/>
+      <c r="F46" s="6" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n"/>
@@ -1504,12 +1498,12 @@
       <c r="F47" s="2" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="n"/>
-      <c r="B48" s="3" t="n"/>
-      <c r="C48" s="3" t="n"/>
-      <c r="D48" s="3" t="n"/>
-      <c r="E48" s="3" t="n"/>
-      <c r="F48" s="3" t="n"/>
+      <c r="A48" s="6" t="n"/>
+      <c r="B48" s="6" t="n"/>
+      <c r="C48" s="6" t="n"/>
+      <c r="D48" s="6" t="n"/>
+      <c r="E48" s="6" t="n"/>
+      <c r="F48" s="6" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n"/>
@@ -1520,12 +1514,12 @@
       <c r="F49" s="2" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="3" t="n"/>
-      <c r="B50" s="3" t="n"/>
-      <c r="C50" s="3" t="n"/>
-      <c r="D50" s="3" t="n"/>
-      <c r="E50" s="3" t="n"/>
-      <c r="F50" s="3" t="n"/>
+      <c r="A50" s="6" t="n"/>
+      <c r="B50" s="6" t="n"/>
+      <c r="C50" s="6" t="n"/>
+      <c r="D50" s="6" t="n"/>
+      <c r="E50" s="6" t="n"/>
+      <c r="F50" s="6" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n"/>
@@ -1536,12 +1530,12 @@
       <c r="F51" s="2" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="3" t="n"/>
-      <c r="B52" s="3" t="n"/>
-      <c r="C52" s="3" t="n"/>
-      <c r="D52" s="3" t="n"/>
-      <c r="E52" s="3" t="n"/>
-      <c r="F52" s="3" t="n"/>
+      <c r="A52" s="6" t="n"/>
+      <c r="B52" s="6" t="n"/>
+      <c r="C52" s="6" t="n"/>
+      <c r="D52" s="6" t="n"/>
+      <c r="E52" s="6" t="n"/>
+      <c r="F52" s="6" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n"/>
@@ -1552,12 +1546,12 @@
       <c r="F53" s="2" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="n"/>
-      <c r="B54" s="3" t="n"/>
-      <c r="C54" s="3" t="n"/>
-      <c r="D54" s="3" t="n"/>
-      <c r="E54" s="3" t="n"/>
-      <c r="F54" s="3" t="n"/>
+      <c r="A54" s="6" t="n"/>
+      <c r="B54" s="6" t="n"/>
+      <c r="C54" s="6" t="n"/>
+      <c r="D54" s="6" t="n"/>
+      <c r="E54" s="6" t="n"/>
+      <c r="F54" s="6" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n"/>
@@ -1568,12 +1562,12 @@
       <c r="F55" s="2" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="3" t="n"/>
-      <c r="B56" s="3" t="n"/>
-      <c r="C56" s="3" t="n"/>
-      <c r="D56" s="3" t="n"/>
-      <c r="E56" s="3" t="n"/>
-      <c r="F56" s="3" t="n"/>
+      <c r="A56" s="6" t="n"/>
+      <c r="B56" s="6" t="n"/>
+      <c r="C56" s="6" t="n"/>
+      <c r="D56" s="6" t="n"/>
+      <c r="E56" s="6" t="n"/>
+      <c r="F56" s="6" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n"/>
@@ -1584,12 +1578,12 @@
       <c r="F57" s="2" t="n"/>
     </row>
     <row r="58">
-      <c r="A58" s="3" t="n"/>
-      <c r="B58" s="3" t="n"/>
-      <c r="C58" s="3" t="n"/>
-      <c r="D58" s="3" t="n"/>
-      <c r="E58" s="3" t="n"/>
-      <c r="F58" s="3" t="n"/>
+      <c r="A58" s="6" t="n"/>
+      <c r="B58" s="6" t="n"/>
+      <c r="C58" s="6" t="n"/>
+      <c r="D58" s="6" t="n"/>
+      <c r="E58" s="6" t="n"/>
+      <c r="F58" s="6" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n"/>
@@ -1600,12 +1594,12 @@
       <c r="F59" s="2" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="3" t="n"/>
-      <c r="B60" s="3" t="n"/>
-      <c r="C60" s="3" t="n"/>
-      <c r="D60" s="3" t="n"/>
-      <c r="E60" s="3" t="n"/>
-      <c r="F60" s="3" t="n"/>
+      <c r="A60" s="6" t="n"/>
+      <c r="B60" s="6" t="n"/>
+      <c r="C60" s="6" t="n"/>
+      <c r="D60" s="6" t="n"/>
+      <c r="E60" s="6" t="n"/>
+      <c r="F60" s="6" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n"/>
@@ -1616,12 +1610,12 @@
       <c r="F61" s="2" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" s="3" t="n"/>
-      <c r="B62" s="3" t="n"/>
-      <c r="C62" s="3" t="n"/>
-      <c r="D62" s="3" t="n"/>
-      <c r="E62" s="3" t="n"/>
-      <c r="F62" s="3" t="n"/>
+      <c r="A62" s="6" t="n"/>
+      <c r="B62" s="6" t="n"/>
+      <c r="C62" s="6" t="n"/>
+      <c r="D62" s="6" t="n"/>
+      <c r="E62" s="6" t="n"/>
+      <c r="F62" s="6" t="n"/>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n"/>
@@ -1632,12 +1626,12 @@
       <c r="F63" s="2" t="n"/>
     </row>
     <row r="64">
-      <c r="A64" s="3" t="n"/>
-      <c r="B64" s="3" t="n"/>
-      <c r="C64" s="3" t="n"/>
-      <c r="D64" s="3" t="n"/>
-      <c r="E64" s="3" t="n"/>
-      <c r="F64" s="3" t="n"/>
+      <c r="A64" s="6" t="n"/>
+      <c r="B64" s="6" t="n"/>
+      <c r="C64" s="6" t="n"/>
+      <c r="D64" s="6" t="n"/>
+      <c r="E64" s="6" t="n"/>
+      <c r="F64" s="6" t="n"/>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n"/>
@@ -1648,12 +1642,12 @@
       <c r="F65" s="2" t="n"/>
     </row>
     <row r="66">
-      <c r="A66" s="3" t="n"/>
-      <c r="B66" s="3" t="n"/>
-      <c r="C66" s="3" t="n"/>
-      <c r="D66" s="3" t="n"/>
-      <c r="E66" s="3" t="n"/>
-      <c r="F66" s="3" t="n"/>
+      <c r="A66" s="6" t="n"/>
+      <c r="B66" s="6" t="n"/>
+      <c r="C66" s="6" t="n"/>
+      <c r="D66" s="6" t="n"/>
+      <c r="E66" s="6" t="n"/>
+      <c r="F66" s="6" t="n"/>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n"/>
@@ -1664,12 +1658,12 @@
       <c r="F67" s="2" t="n"/>
     </row>
     <row r="68">
-      <c r="A68" s="3" t="n"/>
-      <c r="B68" s="3" t="n"/>
-      <c r="C68" s="3" t="n"/>
-      <c r="D68" s="3" t="n"/>
-      <c r="E68" s="3" t="n"/>
-      <c r="F68" s="3" t="n"/>
+      <c r="A68" s="6" t="n"/>
+      <c r="B68" s="6" t="n"/>
+      <c r="C68" s="6" t="n"/>
+      <c r="D68" s="6" t="n"/>
+      <c r="E68" s="6" t="n"/>
+      <c r="F68" s="6" t="n"/>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n"/>
@@ -1680,12 +1674,12 @@
       <c r="F69" s="2" t="n"/>
     </row>
     <row r="70">
-      <c r="A70" s="3" t="n"/>
-      <c r="B70" s="3" t="n"/>
-      <c r="C70" s="3" t="n"/>
-      <c r="D70" s="3" t="n"/>
-      <c r="E70" s="3" t="n"/>
-      <c r="F70" s="3" t="n"/>
+      <c r="A70" s="6" t="n"/>
+      <c r="B70" s="6" t="n"/>
+      <c r="C70" s="6" t="n"/>
+      <c r="D70" s="6" t="n"/>
+      <c r="E70" s="6" t="n"/>
+      <c r="F70" s="6" t="n"/>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n"/>
@@ -1696,12 +1690,12 @@
       <c r="F71" s="2" t="n"/>
     </row>
     <row r="72">
-      <c r="A72" s="3" t="n"/>
-      <c r="B72" s="3" t="n"/>
-      <c r="C72" s="3" t="n"/>
-      <c r="D72" s="3" t="n"/>
-      <c r="E72" s="3" t="n"/>
-      <c r="F72" s="3" t="n"/>
+      <c r="A72" s="6" t="n"/>
+      <c r="B72" s="6" t="n"/>
+      <c r="C72" s="6" t="n"/>
+      <c r="D72" s="6" t="n"/>
+      <c r="E72" s="6" t="n"/>
+      <c r="F72" s="6" t="n"/>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n"/>
@@ -1712,12 +1706,12 @@
       <c r="F73" s="2" t="n"/>
     </row>
     <row r="74">
-      <c r="A74" s="3" t="n"/>
-      <c r="B74" s="3" t="n"/>
-      <c r="C74" s="3" t="n"/>
-      <c r="D74" s="3" t="n"/>
-      <c r="E74" s="3" t="n"/>
-      <c r="F74" s="3" t="n"/>
+      <c r="A74" s="6" t="n"/>
+      <c r="B74" s="6" t="n"/>
+      <c r="C74" s="6" t="n"/>
+      <c r="D74" s="6" t="n"/>
+      <c r="E74" s="6" t="n"/>
+      <c r="F74" s="6" t="n"/>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n"/>
@@ -1728,12 +1722,12 @@
       <c r="F75" s="2" t="n"/>
     </row>
     <row r="76">
-      <c r="A76" s="3" t="n"/>
-      <c r="B76" s="3" t="n"/>
-      <c r="C76" s="3" t="n"/>
-      <c r="D76" s="3" t="n"/>
-      <c r="E76" s="3" t="n"/>
-      <c r="F76" s="3" t="n"/>
+      <c r="A76" s="6" t="n"/>
+      <c r="B76" s="6" t="n"/>
+      <c r="C76" s="6" t="n"/>
+      <c r="D76" s="6" t="n"/>
+      <c r="E76" s="6" t="n"/>
+      <c r="F76" s="6" t="n"/>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n"/>
@@ -1744,12 +1738,12 @@
       <c r="F77" s="2" t="n"/>
     </row>
     <row r="78">
-      <c r="A78" s="3" t="n"/>
-      <c r="B78" s="3" t="n"/>
-      <c r="C78" s="3" t="n"/>
-      <c r="D78" s="3" t="n"/>
-      <c r="E78" s="3" t="n"/>
-      <c r="F78" s="3" t="n"/>
+      <c r="A78" s="6" t="n"/>
+      <c r="B78" s="6" t="n"/>
+      <c r="C78" s="6" t="n"/>
+      <c r="D78" s="6" t="n"/>
+      <c r="E78" s="6" t="n"/>
+      <c r="F78" s="6" t="n"/>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n"/>
@@ -1760,12 +1754,12 @@
       <c r="F79" s="2" t="n"/>
     </row>
     <row r="80">
-      <c r="A80" s="3" t="n"/>
-      <c r="B80" s="3" t="n"/>
-      <c r="C80" s="3" t="n"/>
-      <c r="D80" s="3" t="n"/>
-      <c r="E80" s="3" t="n"/>
-      <c r="F80" s="3" t="n"/>
+      <c r="A80" s="6" t="n"/>
+      <c r="B80" s="6" t="n"/>
+      <c r="C80" s="6" t="n"/>
+      <c r="D80" s="6" t="n"/>
+      <c r="E80" s="6" t="n"/>
+      <c r="F80" s="6" t="n"/>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n"/>
@@ -1776,12 +1770,12 @@
       <c r="F81" s="2" t="n"/>
     </row>
     <row r="82">
-      <c r="A82" s="3" t="n"/>
-      <c r="B82" s="3" t="n"/>
-      <c r="C82" s="3" t="n"/>
-      <c r="D82" s="3" t="n"/>
-      <c r="E82" s="3" t="n"/>
-      <c r="F82" s="3" t="n"/>
+      <c r="A82" s="6" t="n"/>
+      <c r="B82" s="6" t="n"/>
+      <c r="C82" s="6" t="n"/>
+      <c r="D82" s="6" t="n"/>
+      <c r="E82" s="6" t="n"/>
+      <c r="F82" s="6" t="n"/>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n"/>
@@ -1792,12 +1786,12 @@
       <c r="F83" s="2" t="n"/>
     </row>
     <row r="84">
-      <c r="A84" s="3" t="n"/>
-      <c r="B84" s="3" t="n"/>
-      <c r="C84" s="3" t="n"/>
-      <c r="D84" s="3" t="n"/>
-      <c r="E84" s="3" t="n"/>
-      <c r="F84" s="3" t="n"/>
+      <c r="A84" s="6" t="n"/>
+      <c r="B84" s="6" t="n"/>
+      <c r="C84" s="6" t="n"/>
+      <c r="D84" s="6" t="n"/>
+      <c r="E84" s="6" t="n"/>
+      <c r="F84" s="6" t="n"/>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n"/>
@@ -1808,12 +1802,12 @@
       <c r="F85" s="2" t="n"/>
     </row>
     <row r="86">
-      <c r="A86" s="3" t="n"/>
-      <c r="B86" s="3" t="n"/>
-      <c r="C86" s="3" t="n"/>
-      <c r="D86" s="3" t="n"/>
-      <c r="E86" s="3" t="n"/>
-      <c r="F86" s="3" t="n"/>
+      <c r="A86" s="6" t="n"/>
+      <c r="B86" s="6" t="n"/>
+      <c r="C86" s="6" t="n"/>
+      <c r="D86" s="6" t="n"/>
+      <c r="E86" s="6" t="n"/>
+      <c r="F86" s="6" t="n"/>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n"/>
@@ -1824,12 +1818,12 @@
       <c r="F87" s="2" t="n"/>
     </row>
     <row r="88">
-      <c r="A88" s="3" t="n"/>
-      <c r="B88" s="3" t="n"/>
-      <c r="C88" s="3" t="n"/>
-      <c r="D88" s="3" t="n"/>
-      <c r="E88" s="3" t="n"/>
-      <c r="F88" s="3" t="n"/>
+      <c r="A88" s="6" t="n"/>
+      <c r="B88" s="6" t="n"/>
+      <c r="C88" s="6" t="n"/>
+      <c r="D88" s="6" t="n"/>
+      <c r="E88" s="6" t="n"/>
+      <c r="F88" s="6" t="n"/>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n"/>
@@ -1840,12 +1834,12 @@
       <c r="F89" s="2" t="n"/>
     </row>
     <row r="90">
-      <c r="A90" s="3" t="n"/>
-      <c r="B90" s="3" t="n"/>
-      <c r="C90" s="3" t="n"/>
-      <c r="D90" s="3" t="n"/>
-      <c r="E90" s="3" t="n"/>
-      <c r="F90" s="3" t="n"/>
+      <c r="A90" s="6" t="n"/>
+      <c r="B90" s="6" t="n"/>
+      <c r="C90" s="6" t="n"/>
+      <c r="D90" s="6" t="n"/>
+      <c r="E90" s="6" t="n"/>
+      <c r="F90" s="6" t="n"/>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n"/>
@@ -1856,12 +1850,12 @@
       <c r="F91" s="2" t="n"/>
     </row>
     <row r="92">
-      <c r="A92" s="3" t="n"/>
-      <c r="B92" s="3" t="n"/>
-      <c r="C92" s="3" t="n"/>
-      <c r="D92" s="3" t="n"/>
-      <c r="E92" s="3" t="n"/>
-      <c r="F92" s="3" t="n"/>
+      <c r="A92" s="6" t="n"/>
+      <c r="B92" s="6" t="n"/>
+      <c r="C92" s="6" t="n"/>
+      <c r="D92" s="6" t="n"/>
+      <c r="E92" s="6" t="n"/>
+      <c r="F92" s="6" t="n"/>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n"/>
@@ -1872,12 +1866,12 @@
       <c r="F93" s="2" t="n"/>
     </row>
     <row r="94">
-      <c r="A94" s="3" t="n"/>
-      <c r="B94" s="3" t="n"/>
-      <c r="C94" s="3" t="n"/>
-      <c r="D94" s="3" t="n"/>
-      <c r="E94" s="3" t="n"/>
-      <c r="F94" s="3" t="n"/>
+      <c r="A94" s="6" t="n"/>
+      <c r="B94" s="6" t="n"/>
+      <c r="C94" s="6" t="n"/>
+      <c r="D94" s="6" t="n"/>
+      <c r="E94" s="6" t="n"/>
+      <c r="F94" s="6" t="n"/>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n"/>
@@ -1888,12 +1882,12 @@
       <c r="F95" s="2" t="n"/>
     </row>
     <row r="96">
-      <c r="A96" s="3" t="n"/>
-      <c r="B96" s="3" t="n"/>
-      <c r="C96" s="3" t="n"/>
-      <c r="D96" s="3" t="n"/>
-      <c r="E96" s="3" t="n"/>
-      <c r="F96" s="3" t="n"/>
+      <c r="A96" s="6" t="n"/>
+      <c r="B96" s="6" t="n"/>
+      <c r="C96" s="6" t="n"/>
+      <c r="D96" s="6" t="n"/>
+      <c r="E96" s="6" t="n"/>
+      <c r="F96" s="6" t="n"/>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n"/>
@@ -1904,12 +1898,12 @@
       <c r="F97" s="2" t="n"/>
     </row>
     <row r="98">
-      <c r="A98" s="3" t="n"/>
-      <c r="B98" s="3" t="n"/>
-      <c r="C98" s="3" t="n"/>
-      <c r="D98" s="3" t="n"/>
-      <c r="E98" s="3" t="n"/>
-      <c r="F98" s="3" t="n"/>
+      <c r="A98" s="6" t="n"/>
+      <c r="B98" s="6" t="n"/>
+      <c r="C98" s="6" t="n"/>
+      <c r="D98" s="6" t="n"/>
+      <c r="E98" s="6" t="n"/>
+      <c r="F98" s="6" t="n"/>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n"/>
@@ -1920,12 +1914,12 @@
       <c r="F99" s="2" t="n"/>
     </row>
     <row r="100">
-      <c r="A100" s="3" t="n"/>
-      <c r="B100" s="3" t="n"/>
-      <c r="C100" s="3" t="n"/>
-      <c r="D100" s="3" t="n"/>
-      <c r="E100" s="3" t="n"/>
-      <c r="F100" s="3" t="n"/>
+      <c r="A100" s="6" t="n"/>
+      <c r="B100" s="6" t="n"/>
+      <c r="C100" s="6" t="n"/>
+      <c r="D100" s="6" t="n"/>
+      <c r="E100" s="6" t="n"/>
+      <c r="F100" s="6" t="n"/>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n"/>
